--- a/datos.xlsx
+++ b/datos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgiar-my.sharepoint.com/personal/j_aparicio_cgiar_org/Documents/2022/Universidad del Valle 2022/Clase 4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Univalle\OneDrive - correounivalle.edu.co\universidad\Experimentos\Taller Repaso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E912F08-14B7-46CB-A0BC-053187D9AB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{6E912F08-14B7-46CB-A0BC-053187D9AB12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{18F0112D-CABA-408D-A9F2-AC85A605866F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EF592058-19F2-4ACD-A3F0-4726F20394F2}"/>
   </bookViews>
@@ -20,25 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
-  <si>
-    <t>Fertilizante</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Replica</t>
   </si>
@@ -46,13 +33,7 @@
     <t>Production</t>
   </si>
   <si>
-    <t>Gallinaza</t>
-  </si>
-  <si>
-    <t>Cal_Agricola</t>
-  </si>
-  <si>
-    <t>Calftos</t>
+    <t>Aerosol</t>
   </si>
 </sst>
 </file>
@@ -88,8 +69,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,188 +386,224 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3414E9-04D4-4731-93EE-DC7091E505C8}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:C16"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.42578125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6">
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
         <v>4</v>
       </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11">
+      <c r="C17">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
         <v>5</v>
       </c>
-      <c r="C11">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="C16">
-        <v>82</v>
+      <c r="C18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Univalle\OneDrive - correounivalle.edu.co\universidad\Experimentos\Taller Repaso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{6E912F08-14B7-46CB-A0BC-053187D9AB12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{18F0112D-CABA-408D-A9F2-AC85A605866F}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{6E912F08-14B7-46CB-A0BC-053187D9AB12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C382032-DFE9-4EB0-A9AC-654B299EDFE9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EF592058-19F2-4ACD-A3F0-4726F20394F2}"/>
   </bookViews>
@@ -30,10 +30,10 @@
     <t>Replica</t>
   </si>
   <si>
-    <t>Production</t>
+    <t>Aerosol</t>
   </si>
   <si>
-    <t>Aerosol</t>
+    <t>Efectividad</t>
   </si>
 </sst>
 </file>
@@ -389,7 +389,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,13 +399,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
